--- a/Results/Descr_statistics/month_stat.xlsx
+++ b/Results/Descr_statistics/month_stat.xlsx
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>7.288</v>
+        <v>7.298</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>32.7</v>
       </c>
       <c r="G9" t="n">
-        <v>50.535</v>
+        <v>49.766</v>
       </c>
       <c r="H9" t="n">
-        <v>7.109</v>
+        <v>7.054</v>
       </c>
       <c r="I9" t="n">
-        <v>5.166</v>
+        <v>5.101</v>
       </c>
     </row>
     <row r="10">
